--- a/results/RandomForestClassifier_tpesearch-train_df.xlsx
+++ b/results/RandomForestClassifier_tpesearch-train_df.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C2" t="n">
         <v>0.7894736842105263</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6741573033707866</v>
       </c>
       <c r="E2" t="n">
         <v>38</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8048780487804879</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6875</v>
+        <v>0.7010309278350516</v>
       </c>
       <c r="E3" t="n">
         <v>55</v>
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6909005628517824</v>
+        <v>0.6988795518207283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6947368421052631</v>
+        <v>0.7038277511961722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6770833333333333</v>
+        <v>0.6875941156029191</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7117351570538037</v>
+        <v>0.719104846239571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6774193548387096</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6789874551971326</v>
+        <v>0.6900503070862122</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7435897435897436</v>
+        <v>0.6279069767441861</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7532467532467534</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E7" t="n">
         <v>38</v>
@@ -576,13 +576,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.78</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.7090909090909091</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8256880733944955</v>
+        <v>0.7428571428571428</v>
       </c>
       <c r="E8" t="n">
         <v>55</v>
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.7096774193548387</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7884615384615385</v>
+        <v>0.703953488372093</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7906698564593302</v>
+        <v>0.7098086124401914</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7894674133206244</v>
+        <v>0.7047619047619047</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7966639095671354</v>
+        <v>0.7178544636159039</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7960883941943429</v>
+        <v>0.7117255504352279</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D12" t="n">
-        <v>0.717948717948718</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>38</v>
@@ -671,13 +671,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8113207547169812</v>
+        <v>0.8135593220338984</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7818181818181819</v>
+        <v>0.8727272727272727</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7962962962962964</v>
+        <v>0.8421052631578948</v>
       </c>
       <c r="E13" t="n">
         <v>55</v>
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.8064516129032258</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7556603773584906</v>
+        <v>0.8038384845463609</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7593301435406699</v>
+        <v>0.7916267942583732</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7571225071225072</v>
+        <v>0.7960526315789473</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.76583485494015</v>
+        <v>0.8056154118290291</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7634408602150538</v>
+        <v>0.8064516129032258</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7642833072940601</v>
+        <v>0.8044708545557442</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6444444444444445</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6987951807228916</v>
+        <v>0.7</v>
       </c>
       <c r="E17" t="n">
         <v>38</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.8125</v>
+        <v>0.803921568627451</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.7454545454545455</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7572815533980584</v>
+        <v>0.7735849056603775</v>
       </c>
       <c r="E18" t="n">
         <v>55</v>
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7284722222222222</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7361244019138756</v>
+        <v>0.7411483253588517</v>
       </c>
       <c r="D20" t="n">
-        <v>0.728038367060475</v>
+        <v>0.7367924528301888</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7438321385902031</v>
+        <v>0.7478389205144423</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7311827956989247</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7333838957458397</v>
+        <v>0.7435179549604384</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,13 +842,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7435897435897436</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7631578947368421</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7532467532467534</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="E22" t="n">
         <v>38</v>
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.7962962962962963</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.7818181818181819</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8256880733944955</v>
+        <v>0.7889908256880734</v>
       </c>
       <c r="E23" t="n">
         <v>55</v>
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.7526881720430108</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7884615384615385</v>
+        <v>0.7443019943019943</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7906698564593302</v>
+        <v>0.7461722488038278</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7894674133206244</v>
+        <v>0.7451447634933874</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7966639095671354</v>
+        <v>0.7538063290751462</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7956989247311828</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7960883941943429</v>
+        <v>0.7531596350773623</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>

--- a/results/RandomForestClassifier_tpesearch-train_df.xlsx
+++ b/results/RandomForestClassifier_tpesearch-train_df.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.8125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.7959183673469388</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6741573033707866</v>
+        <v>0.8041237113402061</v>
       </c>
       <c r="E2" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8095238095238095</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6181818181818182</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7010309278350516</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="E3" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7956989247311828</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6988795518207283</v>
+        <v>0.7951388888888888</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7038277511961722</v>
+        <v>0.7956864564007421</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6875941156029191</v>
+        <v>0.7953202826363952</v>
       </c>
       <c r="E5" t="n">
         <v>93</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.719104846239571</v>
+        <v>0.7960722819593788</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6881720430107527</v>
+        <v>0.7956989247311828</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6900503070862122</v>
+        <v>0.7957935852548795</v>
       </c>
       <c r="E6" t="n">
         <v>93</v>
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6279069767441861</v>
+        <v>0.8627450980392157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.78</v>
+        <v>0.8809523809523809</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7090909090909091</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7428571428571428</v>
+        <v>0.8604651162790699</v>
       </c>
       <c r="E8" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.8709677419354839</v>
       </c>
     </row>
     <row r="10">
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.703953488372093</v>
+        <v>0.8718487394957983</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7098086124401914</v>
+        <v>0.8694341372912802</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7047619047619047</v>
+        <v>0.8702325581395349</v>
       </c>
       <c r="E10" t="n">
         <v>93</v>
@@ -633,13 +633,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7178544636159039</v>
+        <v>0.8713592964067348</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7096774193548387</v>
+        <v>0.8709677419354839</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7117255504352279</v>
+        <v>0.8707576894223557</v>
       </c>
       <c r="E11" t="n">
         <v>93</v>
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7941176470588235</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7105263157894737</v>
+        <v>0.7755102040816326</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7499999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="E12" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8135593220338984</v>
+        <v>0.7380952380952381</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8727272727272727</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8421052631578948</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="E13" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.7419354838709677</v>
       </c>
     </row>
     <row r="15">
@@ -709,13 +709,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.8038384845463609</v>
+        <v>0.7415966386554622</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7916267942583732</v>
+        <v>0.7400278293135436</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7960526315789473</v>
+        <v>0.7404651162790697</v>
       </c>
       <c r="E15" t="n">
         <v>93</v>
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.8056154118290291</v>
+        <v>0.7417848859974097</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8064516129032258</v>
+        <v>0.7419354838709677</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8044708545557442</v>
+        <v>0.7415153788447112</v>
       </c>
       <c r="E16" t="n">
         <v>93</v>
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7368421052631579</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7</v>
+        <v>0.8653846153846154</v>
       </c>
       <c r="E17" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18">
@@ -766,16 +766,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.803921568627451</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7454545454545455</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7735849056603775</v>
+        <v>0.8292682926829269</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -785,16 +785,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="D19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8494623655913979</v>
       </c>
     </row>
     <row r="20">
@@ -804,13 +804,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7352941176470589</v>
+        <v>0.8564593301435407</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7411483253588517</v>
+        <v>0.8455473098330242</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7367924528301888</v>
+        <v>0.8473264540337712</v>
       </c>
       <c r="E20" t="n">
         <v>93</v>
@@ -823,13 +823,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7478389205144423</v>
+        <v>0.8544013993929106</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7419354838709677</v>
+        <v>0.8494623655913979</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7435179549604384</v>
+        <v>0.8482973229236015</v>
       </c>
       <c r="E21" t="n">
         <v>93</v>
@@ -842,16 +842,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6923076923076923</v>
+        <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7105263157894737</v>
+        <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7012987012987013</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -861,16 +861,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.7962962962962963</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7818181818181819</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7889908256880734</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24">
@@ -880,16 +880,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.7526881720430108</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7526881720430108</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7526881720430108</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0.7526881720430108</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.7443019943019943</v>
+        <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7461722488038278</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7451447634933874</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>93</v>
@@ -918,13 +918,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.7538063290751462</v>
+        <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7526881720430108</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7531596350773623</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
         <v>93</v>
